--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3391.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3391.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.612025612768271</v>
+        <v>1.229832530021667</v>
       </c>
       <c r="B1">
-        <v>2.43358664124481</v>
+        <v>3.483012199401855</v>
       </c>
       <c r="C1">
-        <v>2.693007088311216</v>
+        <v>4.877372741699219</v>
       </c>
       <c r="D1">
-        <v>3.201015083483263</v>
+        <v>2.173002481460571</v>
       </c>
       <c r="E1">
-        <v>3.351404961558378</v>
+        <v>1.374904751777649</v>
       </c>
     </row>
   </sheetData>
